--- a/03_Figures/03_Maps/Data/Youth unemployment/Data-cleaned/Denmark-cleaned.xlsx
+++ b/03_Figures/03_Maps/Data/Youth unemployment/Data-cleaned/Denmark-cleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Downloads\Youth unemployment\Data-cleaned\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Pictures\ESPON-DATA\03_Figures\03_Maps\Data\Youth unemployment\Data-cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87F69B-41A8-48C4-BDC3-915E6D86DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11BCF7-5A95-438E-89E5-B87E32A783EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="3060" windowWidth="14715" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1350" windowWidth="13245" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,7 +733,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
